--- a/Code/Results/Cases/Case_4_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_166/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.62711311701523</v>
+        <v>12.17913027012948</v>
       </c>
       <c r="C2">
-        <v>15.09360100400631</v>
+        <v>8.549402026451745</v>
       </c>
       <c r="D2">
-        <v>7.24404643475477</v>
+        <v>5.971302686218404</v>
       </c>
       <c r="E2">
-        <v>11.66894820929308</v>
+        <v>11.28459210549862</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.053320732583673</v>
+        <v>3.612409147005827</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.67730358425531</v>
+        <v>18.9814550723197</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.86467605277677</v>
+        <v>14.75491196416102</v>
       </c>
       <c r="N2">
-        <v>10.96729645978983</v>
+        <v>16.74192519004302</v>
       </c>
       <c r="O2">
-        <v>16.53884057908176</v>
+        <v>20.81998707484196</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.33363810356815</v>
+        <v>11.62472746345773</v>
       </c>
       <c r="C3">
-        <v>14.11869285070867</v>
+        <v>8.019774952927095</v>
       </c>
       <c r="D3">
-        <v>6.738785180619937</v>
+        <v>5.85021739935645</v>
       </c>
       <c r="E3">
-        <v>11.03075758856687</v>
+        <v>11.17211571382977</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.059810391621281</v>
+        <v>3.6148441378543</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.61992591387625</v>
+        <v>19.05159396053701</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.68177162622689</v>
+        <v>14.48125101321697</v>
       </c>
       <c r="N3">
-        <v>11.17668239869695</v>
+        <v>16.80370574409741</v>
       </c>
       <c r="O3">
-        <v>16.01218454327707</v>
+        <v>20.80448057940708</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.49405296551373</v>
+        <v>11.27206528691165</v>
       </c>
       <c r="C4">
-        <v>13.4872296023292</v>
+        <v>7.674788078515999</v>
       </c>
       <c r="D4">
-        <v>6.4116112562807</v>
+        <v>5.776417067218845</v>
       </c>
       <c r="E4">
-        <v>10.63427307365511</v>
+        <v>11.10678223467012</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.063909083397639</v>
+        <v>3.616418225123737</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.60062387321259</v>
+        <v>19.09973759178861</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.91680400523538</v>
+        <v>14.31424661633843</v>
       </c>
       <c r="N4">
-        <v>11.30806327330085</v>
+        <v>16.84345810946379</v>
       </c>
       <c r="O4">
-        <v>15.6995755423906</v>
+        <v>20.80142608029618</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.1404452716034</v>
+        <v>11.12547174578156</v>
       </c>
       <c r="C5">
-        <v>13.22160908357574</v>
+        <v>7.529234748234598</v>
       </c>
       <c r="D5">
-        <v>6.273984252751011</v>
+        <v>5.746527002748504</v>
       </c>
       <c r="E5">
-        <v>10.47171587288953</v>
+        <v>11.08112375437205</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.065608974278599</v>
+        <v>3.617079608688937</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.59657315548114</v>
+        <v>19.12062783140128</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.59528639195957</v>
+        <v>14.24654419253858</v>
       </c>
       <c r="N5">
-        <v>11.36233307150941</v>
+        <v>16.8601162552479</v>
       </c>
       <c r="O5">
-        <v>15.57499596948717</v>
+        <v>20.80180621281921</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.08103471695345</v>
+        <v>11.10096244955249</v>
       </c>
       <c r="C6">
-        <v>13.1770014075366</v>
+        <v>7.504766016667504</v>
       </c>
       <c r="D6">
-        <v>6.250870451533822</v>
+        <v>5.74157627860634</v>
       </c>
       <c r="E6">
-        <v>10.44466974902119</v>
+        <v>11.07692226813733</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.065893057478365</v>
+        <v>3.617190636626118</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.59612530768106</v>
+        <v>19.12417325786022</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.54130581944077</v>
+        <v>14.23532639724945</v>
       </c>
       <c r="N6">
-        <v>11.37138933165525</v>
+        <v>16.86291007445221</v>
       </c>
       <c r="O6">
-        <v>15.55448242681361</v>
+        <v>20.80196740752542</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.48933059980374</v>
+        <v>11.27009965265433</v>
       </c>
       <c r="C7">
-        <v>13.48368096501112</v>
+        <v>7.672845196616937</v>
       </c>
       <c r="D7">
-        <v>6.409772638237595</v>
+        <v>5.776013151538426</v>
       </c>
       <c r="E7">
-        <v>10.63208450102057</v>
+        <v>11.10643225102418</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.0639318874599</v>
+        <v>3.616427063988505</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.60055405156626</v>
+        <v>19.10001418489699</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.9125076128589</v>
+        <v>14.31333200078362</v>
       </c>
       <c r="N7">
-        <v>11.30879218540229</v>
+        <v>16.84368090784568</v>
       </c>
       <c r="O7">
-        <v>15.69788389937173</v>
+        <v>20.80142463061373</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.19050584175454</v>
+        <v>11.99062807341975</v>
       </c>
       <c r="C8">
-        <v>14.76425252878963</v>
+        <v>8.370898548393114</v>
       </c>
       <c r="D8">
-        <v>7.073323523057053</v>
+        <v>5.929466913643878</v>
       </c>
       <c r="E8">
-        <v>11.44995677133773</v>
+        <v>11.24505421755827</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.05553530515968</v>
+        <v>3.613232377108807</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.65410102880571</v>
+        <v>19.00458167921752</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.46479118296877</v>
+        <v>14.66039810276333</v>
       </c>
       <c r="N8">
-        <v>11.03892192827</v>
+        <v>16.76285044640277</v>
       </c>
       <c r="O8">
-        <v>16.3550799810942</v>
+        <v>20.81329801680267</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.1693855472962</v>
+        <v>13.29886446893361</v>
       </c>
       <c r="C9">
-        <v>17.01659126473209</v>
+        <v>9.582583393817574</v>
       </c>
       <c r="D9">
-        <v>8.242036522651116</v>
+        <v>6.23270913034546</v>
       </c>
       <c r="E9">
-        <v>13.01121052973382</v>
+        <v>11.54511827197953</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.039927347950956</v>
+        <v>3.607591333798028</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.89368390485677</v>
+        <v>18.85797592837308</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.20562787722594</v>
+        <v>15.34498340328119</v>
       </c>
       <c r="N9">
-        <v>10.5309938476309</v>
+        <v>16.61871103406908</v>
       </c>
       <c r="O9">
-        <v>17.72469129606486</v>
+        <v>20.88787935504501</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.14495212937732</v>
+        <v>14.18788508172133</v>
       </c>
       <c r="C10">
-        <v>18.51694806262894</v>
+        <v>10.3770660748654</v>
       </c>
       <c r="D10">
-        <v>9.022683728673893</v>
+        <v>6.4542992592535</v>
       </c>
       <c r="E10">
-        <v>14.29904531892988</v>
+        <v>11.78083909517387</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.028912641084233</v>
+        <v>3.603822837291236</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.162410900538</v>
+        <v>18.7753033890737</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.0402028549595</v>
+        <v>15.84498242147886</v>
       </c>
       <c r="N10">
-        <v>10.16925639248992</v>
+        <v>16.52148268588167</v>
       </c>
       <c r="O10">
-        <v>18.77481649033681</v>
+        <v>20.97383652563388</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.99858930484388</v>
+        <v>14.57532512062296</v>
       </c>
       <c r="C11">
-        <v>19.16687426337129</v>
+        <v>10.71778226633998</v>
       </c>
       <c r="D11">
-        <v>9.361524475423938</v>
+        <v>6.554324474216708</v>
       </c>
       <c r="E11">
-        <v>14.88431186131947</v>
+        <v>11.89094435657982</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.023982951698461</v>
+        <v>3.602189182794537</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.30690253199304</v>
+        <v>18.74319685186347</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.83735493427415</v>
+        <v>16.07071646558191</v>
       </c>
       <c r="N11">
-        <v>10.00682720116414</v>
+        <v>16.47911501344635</v>
       </c>
       <c r="O11">
-        <v>19.26120762477183</v>
+        <v>21.01965162762892</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.31546296468148</v>
+        <v>14.71950883161469</v>
       </c>
       <c r="C12">
-        <v>19.40838239795673</v>
+        <v>10.84383407271577</v>
       </c>
       <c r="D12">
-        <v>9.487549541725066</v>
+        <v>6.592049063697043</v>
       </c>
       <c r="E12">
-        <v>15.10318515918241</v>
+        <v>11.93301305999457</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.022126303602595</v>
+        <v>3.601582089092423</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.364977726726</v>
+        <v>18.73183522690142</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.13396952270555</v>
+        <v>16.15586373508319</v>
       </c>
       <c r="N12">
-        <v>9.945596118194418</v>
+        <v>16.46333785106615</v>
       </c>
       <c r="O12">
-        <v>19.4465927023531</v>
+        <v>21.03795865374698</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.2475006532516</v>
+        <v>14.68857014784499</v>
       </c>
       <c r="C13">
-        <v>19.3565726967908</v>
+        <v>10.81681853730083</v>
       </c>
       <c r="D13">
-        <v>9.460508581878338</v>
+        <v>6.58393182193604</v>
       </c>
       <c r="E13">
-        <v>15.05616702249751</v>
+        <v>11.92393679669711</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.022525741672221</v>
+        <v>3.601712325510062</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.35231831904224</v>
+        <v>18.7342466529324</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.07031955158413</v>
+        <v>16.13754189820908</v>
       </c>
       <c r="N13">
-        <v>9.958771455989838</v>
+        <v>16.46672390898208</v>
       </c>
       <c r="O13">
-        <v>19.40661390217669</v>
+        <v>21.03397344274036</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.02478596538082</v>
+        <v>14.5872383962716</v>
       </c>
       <c r="C14">
-        <v>19.18683506798475</v>
+        <v>10.72821210658976</v>
       </c>
       <c r="D14">
-        <v>9.371938136050693</v>
+        <v>6.557431387659072</v>
       </c>
       <c r="E14">
-        <v>14.90237305836972</v>
+        <v>11.89439810005489</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.02383001055965</v>
+        <v>3.60213900598974</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.31161219720497</v>
+        <v>18.74224613305718</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.86186202074445</v>
+        <v>16.0777287413432</v>
       </c>
       <c r="N14">
-        <v>10.00178429130815</v>
+        <v>16.47781168141556</v>
       </c>
       <c r="O14">
-        <v>19.27643552940827</v>
+        <v>21.02113860922939</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.8875389687605</v>
+        <v>14.52483769682658</v>
       </c>
       <c r="C15">
-        <v>19.08226877646927</v>
+        <v>10.67355153753399</v>
       </c>
       <c r="D15">
-        <v>9.317390073729937</v>
+        <v>6.54117803126576</v>
       </c>
       <c r="E15">
-        <v>14.80781545300328</v>
+        <v>11.8763523604301</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.024630183130028</v>
+        <v>3.602401860570788</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.28712062860085</v>
+        <v>18.74724991700038</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.73349615553795</v>
+        <v>16.04104556269462</v>
       </c>
       <c r="N15">
-        <v>10.02816615085661</v>
+        <v>16.48463794041568</v>
       </c>
       <c r="O15">
-        <v>19.19685263880588</v>
+        <v>21.01340139509436</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.08826654432736</v>
+        <v>14.16221526938499</v>
       </c>
       <c r="C16">
-        <v>18.47382480579383</v>
+        <v>10.35438348048706</v>
       </c>
       <c r="D16">
-        <v>9.000216678380045</v>
+        <v>6.44774317656398</v>
       </c>
       <c r="E16">
-        <v>14.26040350505019</v>
+        <v>11.77369797033421</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.029236309717655</v>
+        <v>3.60393121809203</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.1534295824692</v>
+        <v>18.77751279123488</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.98736517175898</v>
+        <v>15.83018812702617</v>
       </c>
       <c r="N16">
-        <v>10.17991190199988</v>
+        <v>16.52428887822901</v>
       </c>
       <c r="O16">
-        <v>18.74319967523432</v>
+        <v>20.97097687762188</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.58646644904174</v>
+        <v>13.9353404848453</v>
       </c>
       <c r="C17">
-        <v>18.09227174408152</v>
+        <v>10.15328697885808</v>
       </c>
       <c r="D17">
-        <v>8.801509171131727</v>
+        <v>6.390194932002448</v>
       </c>
       <c r="E17">
-        <v>13.91952661453723</v>
+        <v>11.71143144621591</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.032081711184239</v>
+        <v>3.604890042386557</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.07722902973491</v>
+        <v>18.79749101844929</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.52014572787046</v>
+        <v>15.70033115651883</v>
       </c>
       <c r="N17">
-        <v>10.27352773599773</v>
+        <v>16.54908948759856</v>
       </c>
       <c r="O17">
-        <v>18.46708005351233</v>
+        <v>20.94666530232147</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.2935968473411</v>
+        <v>13.80325420832352</v>
       </c>
       <c r="C18">
-        <v>17.86973918926788</v>
+        <v>10.03567291285753</v>
       </c>
       <c r="D18">
-        <v>8.685682113977899</v>
+        <v>6.357023857744906</v>
       </c>
       <c r="E18">
-        <v>13.72156179721921</v>
+        <v>11.67589035801863</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.033726029458101</v>
+        <v>3.605449127928923</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.03548538778334</v>
+        <v>18.80949950072346</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.24788424289682</v>
+        <v>15.62548405099766</v>
       </c>
       <c r="N18">
-        <v>10.32757505011745</v>
+        <v>16.56352947178484</v>
       </c>
       <c r="O18">
-        <v>18.3090823463689</v>
+        <v>20.93331430788659</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.19370383362583</v>
+        <v>13.75826129404248</v>
       </c>
       <c r="C19">
-        <v>17.7938632863494</v>
+        <v>9.99551595618704</v>
       </c>
       <c r="D19">
-        <v>8.64619969070278</v>
+        <v>6.3457818217695</v>
       </c>
       <c r="E19">
-        <v>13.65420386367434</v>
+        <v>11.66390482188206</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.034284137335443</v>
+        <v>3.60563973106375</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.02170476882684</v>
+        <v>18.8136540885889</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.1550912953339</v>
+        <v>15.60011787376029</v>
       </c>
       <c r="N19">
-        <v>10.34591008535389</v>
+        <v>16.56844875214099</v>
       </c>
       <c r="O19">
-        <v>18.2557295822003</v>
+        <v>20.92890270412274</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.64032282836342</v>
+        <v>13.95965735328551</v>
       </c>
       <c r="C20">
-        <v>18.13320622974998</v>
+        <v>10.17489568436428</v>
       </c>
       <c r="D20">
-        <v>8.822820485588991</v>
+        <v>6.396328677717979</v>
       </c>
       <c r="E20">
-        <v>13.95600940109212</v>
+        <v>11.7180318544369</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.031778025107967</v>
+        <v>3.604787188282722</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.08512374158154</v>
+        <v>18.7953107000734</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.57024639841344</v>
+        <v>15.7141715206775</v>
       </c>
       <c r="N20">
-        <v>10.26354147243673</v>
+        <v>16.54643128313689</v>
       </c>
       <c r="O20">
-        <v>18.49638912769651</v>
+        <v>20.94918791096615</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.09037499684726</v>
+        <v>14.61707133201243</v>
       </c>
       <c r="C21">
-        <v>19.23681539837576</v>
+        <v>10.75431851106509</v>
       </c>
       <c r="D21">
-        <v>9.398015029390658</v>
+        <v>6.565219669549663</v>
       </c>
       <c r="E21">
-        <v>14.94761965387504</v>
+        <v>11.90306448932083</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.023446653370167</v>
+        <v>3.602013367004141</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.32347616244536</v>
+        <v>18.73987483598486</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.92323243220817</v>
+        <v>16.09530702722369</v>
       </c>
       <c r="N21">
-        <v>9.989143083659615</v>
+        <v>16.47454770907496</v>
       </c>
       <c r="O21">
-        <v>19.3146398003119</v>
+        <v>21.02488258236489</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.00093077678116</v>
+        <v>15.03194269697734</v>
       </c>
       <c r="C22">
-        <v>19.93129199471633</v>
+        <v>11.11569716641827</v>
       </c>
       <c r="D22">
-        <v>9.760637790733103</v>
+        <v>6.674691774279186</v>
       </c>
       <c r="E22">
-        <v>15.57971534086662</v>
+        <v>12.02615685938172</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.018059790998869</v>
+        <v>3.60026772541887</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.49890301923309</v>
+        <v>18.70828876141827</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.77695728005205</v>
+        <v>16.34242143914887</v>
       </c>
       <c r="N22">
-        <v>9.811410573334191</v>
+        <v>16.42912078674003</v>
       </c>
       <c r="O22">
-        <v>19.85639899576236</v>
+        <v>21.07993192679836</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.51831329093988</v>
+        <v>14.81189693813038</v>
       </c>
       <c r="C23">
-        <v>19.56305909905922</v>
+        <v>10.92440377798432</v>
       </c>
       <c r="D23">
-        <v>9.568297280504463</v>
+        <v>6.616360469046007</v>
       </c>
       <c r="E23">
-        <v>15.24376635553851</v>
+        <v>11.96027529529212</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.020930077277713</v>
+        <v>3.601193277777277</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.40342551044932</v>
+        <v>18.7247201820733</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.32405578084869</v>
+        <v>16.21074032188417</v>
       </c>
       <c r="N23">
-        <v>9.906132736933012</v>
+        <v>16.45322426730105</v>
       </c>
       <c r="O23">
-        <v>19.56662281260164</v>
+        <v>21.05004347758032</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.61598800329769</v>
+        <v>13.94866883863509</v>
       </c>
       <c r="C24">
-        <v>18.11470963687529</v>
+        <v>10.16513262187219</v>
       </c>
       <c r="D24">
-        <v>8.81319058899334</v>
+        <v>6.3935558754778</v>
       </c>
       <c r="E24">
-        <v>13.93952174227018</v>
+        <v>11.71504700712011</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.031915295121387</v>
+        <v>3.604833664182211</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.08154812235898</v>
+        <v>18.79629479406124</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.54760726631902</v>
+        <v>15.70791487910137</v>
       </c>
       <c r="N24">
-        <v>10.26805555509375</v>
+        <v>16.54763249099709</v>
       </c>
       <c r="O24">
-        <v>18.48313616400801</v>
+        <v>20.94804548886055</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.40129388232718</v>
+        <v>12.95710541903123</v>
       </c>
       <c r="C25">
-        <v>16.4346727355208</v>
+        <v>9.2716216948432</v>
       </c>
       <c r="D25">
-        <v>7.939775784747368</v>
+        <v>6.150701823601538</v>
       </c>
       <c r="E25">
-        <v>12.59406834549119</v>
+        <v>11.46111534956402</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.044064844918037</v>
+        <v>3.60905105337493</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.81333171519626</v>
+        <v>18.89326254416778</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.49606709796145</v>
+        <v>15.15992575336992</v>
       </c>
       <c r="N25">
-        <v>10.66627874265409</v>
+        <v>16.65617552304449</v>
       </c>
       <c r="O25">
-        <v>17.34611913631681</v>
+        <v>20.86221659991494</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_166/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.17913027012948</v>
+        <v>19.62711311701525</v>
       </c>
       <c r="C2">
-        <v>8.549402026451745</v>
+        <v>15.09360100400624</v>
       </c>
       <c r="D2">
-        <v>5.971302686218404</v>
+        <v>7.244046434754707</v>
       </c>
       <c r="E2">
-        <v>11.28459210549862</v>
+        <v>11.66894820929307</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.612409147005827</v>
+        <v>2.053320732583672</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.9814550723197</v>
+        <v>12.67730358425539</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.75491196416102</v>
+        <v>17.86467605277677</v>
       </c>
       <c r="N2">
-        <v>16.74192519004302</v>
+        <v>10.96729645978986</v>
       </c>
       <c r="O2">
-        <v>20.81998707484196</v>
+        <v>16.53884057908185</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.62472746345773</v>
+        <v>18.3336381035681</v>
       </c>
       <c r="C3">
-        <v>8.019774952927095</v>
+        <v>14.11869285070866</v>
       </c>
       <c r="D3">
-        <v>5.85021739935645</v>
+        <v>6.738785180619999</v>
       </c>
       <c r="E3">
-        <v>11.17211571382977</v>
+        <v>11.03075758856689</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.6148441378543</v>
+        <v>2.059810391621279</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.05159396053701</v>
+        <v>12.6199259138763</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.48125101321697</v>
+        <v>16.68177162622685</v>
       </c>
       <c r="N3">
-        <v>16.80370574409741</v>
+        <v>11.17668239869698</v>
       </c>
       <c r="O3">
-        <v>20.80448057940708</v>
+        <v>16.01218454327712</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.27206528691165</v>
+        <v>17.49405296551366</v>
       </c>
       <c r="C4">
-        <v>7.674788078515999</v>
+        <v>13.48722960232912</v>
       </c>
       <c r="D4">
-        <v>5.776417067218845</v>
+        <v>6.41161125628074</v>
       </c>
       <c r="E4">
-        <v>11.10678223467012</v>
+        <v>10.63427307365505</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.616418225123737</v>
+        <v>2.063909083397772</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.09973759178861</v>
+        <v>12.6006238732128</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.31424661633843</v>
+        <v>15.91680400523536</v>
       </c>
       <c r="N4">
-        <v>16.84345810946379</v>
+        <v>11.30806327330098</v>
       </c>
       <c r="O4">
-        <v>20.80142608029618</v>
+        <v>15.69957554239078</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.12547174578156</v>
+        <v>17.14044527160342</v>
       </c>
       <c r="C5">
-        <v>7.529234748234598</v>
+        <v>13.22160908357573</v>
       </c>
       <c r="D5">
-        <v>5.746527002748504</v>
+        <v>6.273984252751057</v>
       </c>
       <c r="E5">
-        <v>11.08112375437205</v>
+        <v>10.47171587288953</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.617079608688937</v>
+        <v>2.065608974278733</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.12062783140128</v>
+        <v>12.59657315548112</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.24654419253858</v>
+        <v>15.59528639195957</v>
       </c>
       <c r="N5">
-        <v>16.8601162552479</v>
+        <v>11.36233307150938</v>
       </c>
       <c r="O5">
-        <v>20.80180621281921</v>
+        <v>15.57499596948713</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.10096244955249</v>
+        <v>17.08103471695342</v>
       </c>
       <c r="C6">
-        <v>7.504766016667504</v>
+        <v>13.17700140753672</v>
       </c>
       <c r="D6">
-        <v>5.74157627860634</v>
+        <v>6.250870451533793</v>
       </c>
       <c r="E6">
-        <v>11.07692226813733</v>
+        <v>10.44466974902121</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.617190636626118</v>
+        <v>2.065893057478632</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.12417325786022</v>
+        <v>12.59612530768111</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.23532639724945</v>
+        <v>15.54130581944076</v>
       </c>
       <c r="N6">
-        <v>16.86291007445221</v>
+        <v>11.37138933165524</v>
       </c>
       <c r="O6">
-        <v>20.80196740752542</v>
+        <v>15.55448242681357</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.27009965265433</v>
+        <v>17.48933059980376</v>
       </c>
       <c r="C7">
-        <v>7.672845196616937</v>
+        <v>13.48368096501112</v>
       </c>
       <c r="D7">
-        <v>5.776013151538426</v>
+        <v>6.409772638237646</v>
       </c>
       <c r="E7">
-        <v>11.10643225102418</v>
+        <v>10.63208450102058</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.616427063988505</v>
+        <v>2.0639318874599</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.10001418489699</v>
+        <v>12.60055405156627</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.31333200078362</v>
+        <v>15.91250761285888</v>
       </c>
       <c r="N7">
-        <v>16.84368090784568</v>
+        <v>11.30879218540229</v>
       </c>
       <c r="O7">
-        <v>20.80142463061373</v>
+        <v>15.69788389937175</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.99062807341975</v>
+        <v>19.19050584175448</v>
       </c>
       <c r="C8">
-        <v>8.370898548393114</v>
+        <v>14.76425252878973</v>
       </c>
       <c r="D8">
-        <v>5.929466913643878</v>
+        <v>7.073323523057081</v>
       </c>
       <c r="E8">
-        <v>11.24505421755827</v>
+        <v>11.44995677133773</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.613232377108807</v>
+        <v>2.055535305160082</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.00458167921752</v>
+        <v>12.65410102880586</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.66039810276333</v>
+        <v>17.46479118296878</v>
       </c>
       <c r="N8">
-        <v>16.76285044640277</v>
+        <v>11.0389219282701</v>
       </c>
       <c r="O8">
-        <v>20.81329801680267</v>
+        <v>16.35507998109431</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.29886446893361</v>
+        <v>22.16938554729623</v>
       </c>
       <c r="C9">
-        <v>9.582583393817574</v>
+        <v>17.01659126473205</v>
       </c>
       <c r="D9">
-        <v>6.23270913034546</v>
+        <v>8.242036522651192</v>
       </c>
       <c r="E9">
-        <v>11.54511827197953</v>
+        <v>13.01121052973383</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.607591333798028</v>
+        <v>2.039927347950956</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.85797592837308</v>
+        <v>12.89368390485678</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.34498340328119</v>
+        <v>20.20562787722594</v>
       </c>
       <c r="N9">
-        <v>16.61871103406908</v>
+        <v>10.5309938476309</v>
       </c>
       <c r="O9">
-        <v>20.88787935504501</v>
+        <v>17.72469129606486</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.18788508172133</v>
+        <v>24.14495212937733</v>
       </c>
       <c r="C10">
-        <v>10.3770660748654</v>
+        <v>18.51694806262902</v>
       </c>
       <c r="D10">
-        <v>6.4542992592535</v>
+        <v>9.022683728673908</v>
       </c>
       <c r="E10">
-        <v>11.78083909517387</v>
+        <v>14.29904531892989</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.603822837291236</v>
+        <v>2.028912641084099</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.7753033890737</v>
+        <v>13.16241090053804</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.84498242147886</v>
+        <v>22.04020285495953</v>
       </c>
       <c r="N10">
-        <v>16.52148268588167</v>
+        <v>10.16925639248991</v>
       </c>
       <c r="O10">
-        <v>20.97383652563388</v>
+        <v>18.77481649033684</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.57532512062296</v>
+        <v>24.99858930484381</v>
       </c>
       <c r="C11">
-        <v>10.71778226633998</v>
+        <v>19.16687426337115</v>
       </c>
       <c r="D11">
-        <v>6.554324474216708</v>
+        <v>9.361524475423929</v>
       </c>
       <c r="E11">
-        <v>11.89094435657982</v>
+        <v>14.88431186131949</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.602189182794537</v>
+        <v>2.023982951698324</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.74319685186347</v>
+        <v>13.30690253199315</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.07071646558191</v>
+        <v>22.83735493427409</v>
       </c>
       <c r="N11">
-        <v>16.47911501344635</v>
+        <v>10.00682720116431</v>
       </c>
       <c r="O11">
-        <v>21.01965162762892</v>
+        <v>19.26120762477186</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.71950883161469</v>
+        <v>25.31546296468153</v>
       </c>
       <c r="C12">
-        <v>10.84383407271577</v>
+        <v>19.40838239795671</v>
       </c>
       <c r="D12">
-        <v>6.592049063697043</v>
+        <v>9.487549541725112</v>
       </c>
       <c r="E12">
-        <v>11.93301305999457</v>
+        <v>15.10318515918247</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.601582089092423</v>
+        <v>2.022126303602728</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.73183522690142</v>
+        <v>13.36497772672592</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.15586373508319</v>
+        <v>23.13396952270559</v>
       </c>
       <c r="N12">
-        <v>16.46333785106615</v>
+        <v>9.945596118194286</v>
       </c>
       <c r="O12">
-        <v>21.03795865374698</v>
+        <v>19.44659270235308</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.68857014784499</v>
+        <v>25.24750065325167</v>
       </c>
       <c r="C13">
-        <v>10.81681853730083</v>
+        <v>19.35657269679077</v>
       </c>
       <c r="D13">
-        <v>6.58393182193604</v>
+        <v>9.460508581878347</v>
       </c>
       <c r="E13">
-        <v>11.92393679669711</v>
+        <v>15.05616702249753</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.601712325510062</v>
+        <v>2.022525741672358</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.7342466529324</v>
+        <v>13.35231831904219</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.13754189820908</v>
+        <v>23.07031955158416</v>
       </c>
       <c r="N13">
-        <v>16.46672390898208</v>
+        <v>9.95877145598984</v>
       </c>
       <c r="O13">
-        <v>21.03397344274036</v>
+        <v>19.40661390217665</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.5872383962716</v>
+        <v>25.02478596538081</v>
       </c>
       <c r="C14">
-        <v>10.72821210658976</v>
+        <v>19.18683506798475</v>
       </c>
       <c r="D14">
-        <v>6.557431387659072</v>
+        <v>9.371938136050693</v>
       </c>
       <c r="E14">
-        <v>11.89439810005489</v>
+        <v>14.90237305836977</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.60213900598974</v>
+        <v>2.023830010559516</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.74224613305718</v>
+        <v>13.31161219720503</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.0777287413432</v>
+        <v>22.86186202074444</v>
       </c>
       <c r="N14">
-        <v>16.47781168141556</v>
+        <v>10.00178429130818</v>
       </c>
       <c r="O14">
-        <v>21.02113860922939</v>
+        <v>19.2764355294083</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.52483769682658</v>
+        <v>24.88753896876059</v>
       </c>
       <c r="C15">
-        <v>10.67355153753399</v>
+        <v>19.08226877646927</v>
       </c>
       <c r="D15">
-        <v>6.54117803126576</v>
+        <v>9.317390073729976</v>
       </c>
       <c r="E15">
-        <v>11.8763523604301</v>
+        <v>14.80781545300328</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.602401860570788</v>
+        <v>2.024630183129894</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.74724991700038</v>
+        <v>13.28712062860082</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.04104556269462</v>
+        <v>22.73349615553801</v>
       </c>
       <c r="N15">
-        <v>16.48463794041568</v>
+        <v>10.02816615085657</v>
       </c>
       <c r="O15">
-        <v>21.01340139509436</v>
+        <v>19.19685263880588</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.16221526938499</v>
+        <v>24.08826654432736</v>
       </c>
       <c r="C16">
-        <v>10.35438348048706</v>
+        <v>18.47382480579373</v>
       </c>
       <c r="D16">
-        <v>6.44774317656398</v>
+        <v>9.000216678380008</v>
       </c>
       <c r="E16">
-        <v>11.77369797033421</v>
+        <v>14.26040350505025</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.60393121809203</v>
+        <v>2.029236309717653</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.77751279123488</v>
+        <v>13.15342958246916</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.83018812702617</v>
+        <v>21.987365171759</v>
       </c>
       <c r="N16">
-        <v>16.52428887822901</v>
+        <v>10.17991190199985</v>
       </c>
       <c r="O16">
-        <v>20.97097687762188</v>
+        <v>18.7431996752343</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.9353404848453</v>
+        <v>23.58646644904178</v>
       </c>
       <c r="C17">
-        <v>10.15328697885808</v>
+        <v>18.09227174408156</v>
       </c>
       <c r="D17">
-        <v>6.390194932002448</v>
+        <v>8.801509171131727</v>
       </c>
       <c r="E17">
-        <v>11.71143144621591</v>
+        <v>13.91952661453725</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.604890042386557</v>
+        <v>2.032081711184238</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.79749101844929</v>
+        <v>13.07722902973493</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.70033115651883</v>
+        <v>21.52014572787052</v>
       </c>
       <c r="N17">
-        <v>16.54908948759856</v>
+        <v>10.27352773599772</v>
       </c>
       <c r="O17">
-        <v>20.94666530232147</v>
+        <v>18.46708005351235</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.80325420832352</v>
+        <v>23.29359684734111</v>
       </c>
       <c r="C18">
-        <v>10.03567291285753</v>
+        <v>17.86973918926797</v>
       </c>
       <c r="D18">
-        <v>6.357023857744906</v>
+        <v>8.685682113977887</v>
       </c>
       <c r="E18">
-        <v>11.67589035801863</v>
+        <v>13.72156179721918</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.605449127928923</v>
+        <v>2.033726029458367</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.80949950072346</v>
+        <v>13.03548538778336</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.62548405099766</v>
+        <v>21.24788424289683</v>
       </c>
       <c r="N18">
-        <v>16.56352947178484</v>
+        <v>10.32757505011745</v>
       </c>
       <c r="O18">
-        <v>20.93331430788659</v>
+        <v>18.30908234636891</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.75826129404248</v>
+        <v>23.19370383362588</v>
       </c>
       <c r="C19">
-        <v>9.99551595618704</v>
+        <v>17.79386328634932</v>
       </c>
       <c r="D19">
-        <v>6.3457818217695</v>
+        <v>8.646199690702842</v>
       </c>
       <c r="E19">
-        <v>11.66390482188206</v>
+        <v>13.65420386367435</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.60563973106375</v>
+        <v>2.034284137335309</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.8136540885889</v>
+        <v>13.0217047688268</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.60011787376029</v>
+        <v>21.1550912953339</v>
       </c>
       <c r="N19">
-        <v>16.56844875214099</v>
+        <v>10.34591008535386</v>
       </c>
       <c r="O19">
-        <v>20.92890270412274</v>
+        <v>18.2557295822003</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.95965735328551</v>
+        <v>23.64032282836341</v>
       </c>
       <c r="C20">
-        <v>10.17489568436428</v>
+        <v>18.13320622974997</v>
       </c>
       <c r="D20">
-        <v>6.396328677717979</v>
+        <v>8.822820485589029</v>
       </c>
       <c r="E20">
-        <v>11.7180318544369</v>
+        <v>13.95600940109208</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.604787188282722</v>
+        <v>2.031778025108101</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.7953107000734</v>
+        <v>13.08512374158163</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.7141715206775</v>
+        <v>21.57024639841341</v>
       </c>
       <c r="N20">
-        <v>16.54643128313689</v>
+        <v>10.26354147243679</v>
       </c>
       <c r="O20">
-        <v>20.94918791096615</v>
+        <v>18.49638912769657</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.61707133201243</v>
+        <v>25.09037499684715</v>
       </c>
       <c r="C21">
-        <v>10.75431851106509</v>
+        <v>19.2368153983756</v>
       </c>
       <c r="D21">
-        <v>6.565219669549663</v>
+        <v>9.398015029390642</v>
       </c>
       <c r="E21">
-        <v>11.90306448932083</v>
+        <v>14.94761965387499</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.602013367004141</v>
+        <v>2.0234466533703</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.73987483598486</v>
+        <v>13.3234761624455</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.09530702722369</v>
+        <v>22.92323243220807</v>
       </c>
       <c r="N21">
-        <v>16.47454770907496</v>
+        <v>9.989143083659714</v>
       </c>
       <c r="O21">
-        <v>21.02488258236489</v>
+        <v>19.31463980031196</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.03194269697734</v>
+        <v>26.00093077678112</v>
       </c>
       <c r="C22">
-        <v>11.11569716641827</v>
+        <v>19.9312919947162</v>
       </c>
       <c r="D22">
-        <v>6.674691774279186</v>
+        <v>9.760637790733046</v>
       </c>
       <c r="E22">
-        <v>12.02615685938172</v>
+        <v>15.57971534086658</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.60026772541887</v>
+        <v>2.018059790999136</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.70828876141827</v>
+        <v>13.49890301923317</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.34242143914887</v>
+        <v>23.77695728005197</v>
       </c>
       <c r="N22">
-        <v>16.42912078674003</v>
+        <v>9.811410573334257</v>
       </c>
       <c r="O22">
-        <v>21.07993192679836</v>
+        <v>19.85639899576242</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.81189693813038</v>
+        <v>25.5183132909399</v>
       </c>
       <c r="C23">
-        <v>10.92440377798432</v>
+        <v>19.56305909905919</v>
       </c>
       <c r="D23">
-        <v>6.616360469046007</v>
+        <v>9.56829728050444</v>
       </c>
       <c r="E23">
-        <v>11.96027529529212</v>
+        <v>15.24376635553856</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.601193277777277</v>
+        <v>2.020930077277848</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.7247201820733</v>
+        <v>13.40342551044933</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.21074032188417</v>
+        <v>23.32405578084871</v>
       </c>
       <c r="N23">
-        <v>16.45322426730105</v>
+        <v>9.906132736932975</v>
       </c>
       <c r="O23">
-        <v>21.05004347758032</v>
+        <v>19.56662281260165</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.94866883863509</v>
+        <v>23.61598800329768</v>
       </c>
       <c r="C24">
-        <v>10.16513262187219</v>
+        <v>18.11470963687542</v>
       </c>
       <c r="D24">
-        <v>6.3935558754778</v>
+        <v>8.813190588993333</v>
       </c>
       <c r="E24">
-        <v>11.71504700712011</v>
+        <v>13.93952174227017</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.604833664182211</v>
+        <v>2.031915295121387</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.79629479406124</v>
+        <v>13.08154812235898</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.70791487910137</v>
+        <v>21.54760726631906</v>
       </c>
       <c r="N24">
-        <v>16.54763249099709</v>
+        <v>10.26805555509372</v>
       </c>
       <c r="O24">
-        <v>20.94804548886055</v>
+        <v>18.483136164008</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.95710541903123</v>
+        <v>21.40129388232719</v>
       </c>
       <c r="C25">
-        <v>9.2716216948432</v>
+        <v>16.43467273552078</v>
       </c>
       <c r="D25">
-        <v>6.150701823601538</v>
+        <v>7.939775784747392</v>
       </c>
       <c r="E25">
-        <v>11.46111534956402</v>
+        <v>12.59406834549119</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.60905105337493</v>
+        <v>2.044064844918169</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.89326254416778</v>
+        <v>12.81333171519626</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.15992575336992</v>
+        <v>19.49606709796149</v>
       </c>
       <c r="N25">
-        <v>16.65617552304449</v>
+        <v>10.66627874265405</v>
       </c>
       <c r="O25">
-        <v>20.86221659991494</v>
+        <v>17.34611913631678</v>
       </c>
     </row>
   </sheetData>
